--- a/דוחות/GANTT.xlsx
+++ b/דוחות/GANTT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9EBEC4-B045-4DC4-A1AF-FC6E03724418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BC0F09-A13F-4844-88B5-D35D39DE3AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -13,12 +13,12 @@
   </sheets>
   <definedNames>
     <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="Project_Start">ProjectSchedule!$E$3</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -307,7 +307,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
     <numFmt numFmtId="169" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1010,14 +1010,8 @@
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
+    <xf numFmtId="170" fontId="12" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1031,25 +1025,31 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
-    <cellStyle name="Neutral" xfId="13" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="כותרת" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="כותרת 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="כותרת 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="כותרת 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="ניטראלי" xfId="13" builtinId="28"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1605,25 +1605,25 @@
   <dimension ref="A1:ADS62"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="29.8984375" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="29.9140625" customWidth="1"/>
+    <col min="3" max="3" width="26.4140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.9140625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="2.69921875" customWidth="1"/>
-    <col min="8" max="8" width="6.09765625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.59765625" customWidth="1"/>
-    <col min="317" max="16384" width="2.59765625" style="96"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.08203125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.58203125" customWidth="1"/>
+    <col min="317" max="16384" width="2.58203125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:799" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:799" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="29" t="s">
         <v>25</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:799" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:799" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>19</v>
       </c>
@@ -1652,476 +1652,476 @@
       <c r="G2" s="34"/>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="37"/>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="103">
+      <c r="D3" s="103"/>
+      <c r="E3" s="101">
         <f>DATE(2021,10,10)</f>
         <v>44479</v>
       </c>
-      <c r="F3" s="103"/>
+      <c r="F3" s="101"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="38">
         <v>1</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
-      <c r="I4" s="100">
+      <c r="I4" s="98">
         <f>I5</f>
         <v>44479</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="100">
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
         <f>P5</f>
         <v>44486</v>
       </c>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="100">
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
         <f>W5</f>
         <v>44493</v>
       </c>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="100">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
         <f>AD5</f>
         <v>44500</v>
       </c>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="100">
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
         <f>AK5</f>
         <v>44507</v>
       </c>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="100">
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
         <f>AR5</f>
         <v>44514</v>
       </c>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="100">
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
         <f>AY5</f>
         <v>44521</v>
       </c>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="100">
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
         <f>BF5</f>
         <v>44528</v>
       </c>
-      <c r="BG4" s="101"/>
-      <c r="BH4" s="101"/>
-      <c r="BI4" s="101"/>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="101"/>
-      <c r="BL4" s="102"/>
-      <c r="BM4" s="100">
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
+      <c r="BM4" s="98">
         <f>BM5</f>
         <v>44535</v>
       </c>
-      <c r="BN4" s="101"/>
-      <c r="BO4" s="101"/>
-      <c r="BP4" s="101"/>
-      <c r="BQ4" s="101"/>
-      <c r="BR4" s="101"/>
-      <c r="BS4" s="102"/>
-      <c r="BT4" s="100">
+      <c r="BN4" s="99"/>
+      <c r="BO4" s="99"/>
+      <c r="BP4" s="99"/>
+      <c r="BQ4" s="99"/>
+      <c r="BR4" s="99"/>
+      <c r="BS4" s="100"/>
+      <c r="BT4" s="98">
         <f>BT5</f>
         <v>44542</v>
       </c>
-      <c r="BU4" s="101"/>
-      <c r="BV4" s="101"/>
-      <c r="BW4" s="101"/>
-      <c r="BX4" s="101"/>
-      <c r="BY4" s="101"/>
-      <c r="BZ4" s="102"/>
-      <c r="CA4" s="100">
+      <c r="BU4" s="99"/>
+      <c r="BV4" s="99"/>
+      <c r="BW4" s="99"/>
+      <c r="BX4" s="99"/>
+      <c r="BY4" s="99"/>
+      <c r="BZ4" s="100"/>
+      <c r="CA4" s="98">
         <f>CA5</f>
         <v>44549</v>
       </c>
-      <c r="CB4" s="101"/>
-      <c r="CC4" s="101"/>
-      <c r="CD4" s="101"/>
-      <c r="CE4" s="101"/>
-      <c r="CF4" s="101"/>
-      <c r="CG4" s="102"/>
-      <c r="CH4" s="100">
+      <c r="CB4" s="99"/>
+      <c r="CC4" s="99"/>
+      <c r="CD4" s="99"/>
+      <c r="CE4" s="99"/>
+      <c r="CF4" s="99"/>
+      <c r="CG4" s="100"/>
+      <c r="CH4" s="98">
         <f>CH5</f>
         <v>44556</v>
       </c>
-      <c r="CI4" s="101"/>
-      <c r="CJ4" s="101"/>
-      <c r="CK4" s="101"/>
-      <c r="CL4" s="101"/>
-      <c r="CM4" s="101"/>
-      <c r="CN4" s="102"/>
-      <c r="CO4" s="100">
+      <c r="CI4" s="99"/>
+      <c r="CJ4" s="99"/>
+      <c r="CK4" s="99"/>
+      <c r="CL4" s="99"/>
+      <c r="CM4" s="99"/>
+      <c r="CN4" s="100"/>
+      <c r="CO4" s="98">
         <f>CO5</f>
         <v>44563</v>
       </c>
-      <c r="CP4" s="101"/>
-      <c r="CQ4" s="101"/>
-      <c r="CR4" s="101"/>
-      <c r="CS4" s="101"/>
-      <c r="CT4" s="101"/>
-      <c r="CU4" s="102"/>
-      <c r="CV4" s="100">
+      <c r="CP4" s="99"/>
+      <c r="CQ4" s="99"/>
+      <c r="CR4" s="99"/>
+      <c r="CS4" s="99"/>
+      <c r="CT4" s="99"/>
+      <c r="CU4" s="100"/>
+      <c r="CV4" s="98">
         <f>CV5</f>
         <v>44570</v>
       </c>
-      <c r="CW4" s="101"/>
-      <c r="CX4" s="101"/>
-      <c r="CY4" s="101"/>
-      <c r="CZ4" s="101"/>
-      <c r="DA4" s="101"/>
-      <c r="DB4" s="102"/>
-      <c r="DC4" s="100">
+      <c r="CW4" s="99"/>
+      <c r="CX4" s="99"/>
+      <c r="CY4" s="99"/>
+      <c r="CZ4" s="99"/>
+      <c r="DA4" s="99"/>
+      <c r="DB4" s="100"/>
+      <c r="DC4" s="98">
         <f>DC5</f>
         <v>44577</v>
       </c>
-      <c r="DD4" s="101"/>
-      <c r="DE4" s="101"/>
-      <c r="DF4" s="101"/>
-      <c r="DG4" s="101"/>
-      <c r="DH4" s="101"/>
-      <c r="DI4" s="102"/>
-      <c r="DJ4" s="100">
+      <c r="DD4" s="99"/>
+      <c r="DE4" s="99"/>
+      <c r="DF4" s="99"/>
+      <c r="DG4" s="99"/>
+      <c r="DH4" s="99"/>
+      <c r="DI4" s="100"/>
+      <c r="DJ4" s="98">
         <f>DJ5</f>
         <v>44584</v>
       </c>
-      <c r="DK4" s="101"/>
-      <c r="DL4" s="101"/>
-      <c r="DM4" s="101"/>
-      <c r="DN4" s="101"/>
-      <c r="DO4" s="101"/>
-      <c r="DP4" s="102"/>
-      <c r="DQ4" s="100">
+      <c r="DK4" s="99"/>
+      <c r="DL4" s="99"/>
+      <c r="DM4" s="99"/>
+      <c r="DN4" s="99"/>
+      <c r="DO4" s="99"/>
+      <c r="DP4" s="100"/>
+      <c r="DQ4" s="98">
         <f>DQ5</f>
         <v>44591</v>
       </c>
-      <c r="DR4" s="101"/>
-      <c r="DS4" s="101"/>
-      <c r="DT4" s="101"/>
-      <c r="DU4" s="101"/>
-      <c r="DV4" s="101"/>
-      <c r="DW4" s="102"/>
-      <c r="DX4" s="100">
+      <c r="DR4" s="99"/>
+      <c r="DS4" s="99"/>
+      <c r="DT4" s="99"/>
+      <c r="DU4" s="99"/>
+      <c r="DV4" s="99"/>
+      <c r="DW4" s="100"/>
+      <c r="DX4" s="98">
         <f>DX5</f>
         <v>44598</v>
       </c>
-      <c r="DY4" s="101"/>
-      <c r="DZ4" s="101"/>
-      <c r="EA4" s="101"/>
-      <c r="EB4" s="101"/>
-      <c r="EC4" s="101"/>
-      <c r="ED4" s="102"/>
-      <c r="EE4" s="100">
+      <c r="DY4" s="99"/>
+      <c r="DZ4" s="99"/>
+      <c r="EA4" s="99"/>
+      <c r="EB4" s="99"/>
+      <c r="EC4" s="99"/>
+      <c r="ED4" s="100"/>
+      <c r="EE4" s="98">
         <f>EE5</f>
         <v>44605</v>
       </c>
-      <c r="EF4" s="101"/>
-      <c r="EG4" s="101"/>
-      <c r="EH4" s="101"/>
-      <c r="EI4" s="101"/>
-      <c r="EJ4" s="101"/>
-      <c r="EK4" s="102"/>
-      <c r="EL4" s="100">
+      <c r="EF4" s="99"/>
+      <c r="EG4" s="99"/>
+      <c r="EH4" s="99"/>
+      <c r="EI4" s="99"/>
+      <c r="EJ4" s="99"/>
+      <c r="EK4" s="100"/>
+      <c r="EL4" s="98">
         <f>EL5</f>
         <v>44612</v>
       </c>
-      <c r="EM4" s="101"/>
-      <c r="EN4" s="101"/>
-      <c r="EO4" s="101"/>
-      <c r="EP4" s="101"/>
-      <c r="EQ4" s="101"/>
-      <c r="ER4" s="102"/>
-      <c r="ES4" s="100">
+      <c r="EM4" s="99"/>
+      <c r="EN4" s="99"/>
+      <c r="EO4" s="99"/>
+      <c r="EP4" s="99"/>
+      <c r="EQ4" s="99"/>
+      <c r="ER4" s="100"/>
+      <c r="ES4" s="98">
         <f>ES5</f>
         <v>44619</v>
       </c>
-      <c r="ET4" s="101"/>
-      <c r="EU4" s="101"/>
-      <c r="EV4" s="101"/>
-      <c r="EW4" s="101"/>
-      <c r="EX4" s="101"/>
-      <c r="EY4" s="102"/>
-      <c r="EZ4" s="100">
+      <c r="ET4" s="99"/>
+      <c r="EU4" s="99"/>
+      <c r="EV4" s="99"/>
+      <c r="EW4" s="99"/>
+      <c r="EX4" s="99"/>
+      <c r="EY4" s="100"/>
+      <c r="EZ4" s="98">
         <f>EZ5</f>
         <v>44626</v>
       </c>
-      <c r="FA4" s="101"/>
-      <c r="FB4" s="101"/>
-      <c r="FC4" s="101"/>
-      <c r="FD4" s="101"/>
-      <c r="FE4" s="101"/>
-      <c r="FF4" s="102"/>
-      <c r="FG4" s="100">
+      <c r="FA4" s="99"/>
+      <c r="FB4" s="99"/>
+      <c r="FC4" s="99"/>
+      <c r="FD4" s="99"/>
+      <c r="FE4" s="99"/>
+      <c r="FF4" s="100"/>
+      <c r="FG4" s="98">
         <f>FG5</f>
         <v>44633</v>
       </c>
-      <c r="FH4" s="101"/>
-      <c r="FI4" s="101"/>
-      <c r="FJ4" s="101"/>
-      <c r="FK4" s="101"/>
-      <c r="FL4" s="101"/>
-      <c r="FM4" s="102"/>
-      <c r="FN4" s="100">
+      <c r="FH4" s="99"/>
+      <c r="FI4" s="99"/>
+      <c r="FJ4" s="99"/>
+      <c r="FK4" s="99"/>
+      <c r="FL4" s="99"/>
+      <c r="FM4" s="100"/>
+      <c r="FN4" s="98">
         <f>FN5</f>
         <v>44640</v>
       </c>
-      <c r="FO4" s="101"/>
-      <c r="FP4" s="101"/>
-      <c r="FQ4" s="101"/>
-      <c r="FR4" s="101"/>
-      <c r="FS4" s="101"/>
-      <c r="FT4" s="102"/>
-      <c r="FU4" s="100">
+      <c r="FO4" s="99"/>
+      <c r="FP4" s="99"/>
+      <c r="FQ4" s="99"/>
+      <c r="FR4" s="99"/>
+      <c r="FS4" s="99"/>
+      <c r="FT4" s="100"/>
+      <c r="FU4" s="98">
         <f>FU5</f>
         <v>44647</v>
       </c>
-      <c r="FV4" s="101"/>
-      <c r="FW4" s="101"/>
-      <c r="FX4" s="101"/>
-      <c r="FY4" s="101"/>
-      <c r="FZ4" s="101"/>
-      <c r="GA4" s="102"/>
-      <c r="GB4" s="100">
+      <c r="FV4" s="99"/>
+      <c r="FW4" s="99"/>
+      <c r="FX4" s="99"/>
+      <c r="FY4" s="99"/>
+      <c r="FZ4" s="99"/>
+      <c r="GA4" s="100"/>
+      <c r="GB4" s="98">
         <f>GB5</f>
         <v>44654</v>
       </c>
-      <c r="GC4" s="101"/>
-      <c r="GD4" s="101"/>
-      <c r="GE4" s="101"/>
-      <c r="GF4" s="101"/>
-      <c r="GG4" s="101"/>
-      <c r="GH4" s="102"/>
-      <c r="GI4" s="100">
+      <c r="GC4" s="99"/>
+      <c r="GD4" s="99"/>
+      <c r="GE4" s="99"/>
+      <c r="GF4" s="99"/>
+      <c r="GG4" s="99"/>
+      <c r="GH4" s="100"/>
+      <c r="GI4" s="98">
         <f>GI5</f>
         <v>44661</v>
       </c>
-      <c r="GJ4" s="101"/>
-      <c r="GK4" s="101"/>
-      <c r="GL4" s="101"/>
-      <c r="GM4" s="101"/>
-      <c r="GN4" s="101"/>
-      <c r="GO4" s="102"/>
-      <c r="GP4" s="100">
+      <c r="GJ4" s="99"/>
+      <c r="GK4" s="99"/>
+      <c r="GL4" s="99"/>
+      <c r="GM4" s="99"/>
+      <c r="GN4" s="99"/>
+      <c r="GO4" s="100"/>
+      <c r="GP4" s="98">
         <f>GP5</f>
         <v>44668</v>
       </c>
-      <c r="GQ4" s="101"/>
-      <c r="GR4" s="101"/>
-      <c r="GS4" s="101"/>
-      <c r="GT4" s="101"/>
-      <c r="GU4" s="101"/>
-      <c r="GV4" s="102"/>
-      <c r="GW4" s="100">
+      <c r="GQ4" s="99"/>
+      <c r="GR4" s="99"/>
+      <c r="GS4" s="99"/>
+      <c r="GT4" s="99"/>
+      <c r="GU4" s="99"/>
+      <c r="GV4" s="100"/>
+      <c r="GW4" s="98">
         <f>GW5</f>
         <v>44675</v>
       </c>
-      <c r="GX4" s="101"/>
-      <c r="GY4" s="101"/>
-      <c r="GZ4" s="101"/>
-      <c r="HA4" s="101"/>
-      <c r="HB4" s="101"/>
-      <c r="HC4" s="102"/>
-      <c r="HD4" s="100">
+      <c r="GX4" s="99"/>
+      <c r="GY4" s="99"/>
+      <c r="GZ4" s="99"/>
+      <c r="HA4" s="99"/>
+      <c r="HB4" s="99"/>
+      <c r="HC4" s="100"/>
+      <c r="HD4" s="98">
         <f>HD5</f>
         <v>44682</v>
       </c>
-      <c r="HE4" s="101"/>
-      <c r="HF4" s="101"/>
-      <c r="HG4" s="101"/>
-      <c r="HH4" s="101"/>
-      <c r="HI4" s="101"/>
-      <c r="HJ4" s="102"/>
-      <c r="HK4" s="100">
+      <c r="HE4" s="99"/>
+      <c r="HF4" s="99"/>
+      <c r="HG4" s="99"/>
+      <c r="HH4" s="99"/>
+      <c r="HI4" s="99"/>
+      <c r="HJ4" s="100"/>
+      <c r="HK4" s="98">
         <f>HK5</f>
         <v>44689</v>
       </c>
-      <c r="HL4" s="101"/>
-      <c r="HM4" s="101"/>
-      <c r="HN4" s="101"/>
-      <c r="HO4" s="101"/>
-      <c r="HP4" s="101"/>
-      <c r="HQ4" s="102"/>
-      <c r="HR4" s="100">
+      <c r="HL4" s="99"/>
+      <c r="HM4" s="99"/>
+      <c r="HN4" s="99"/>
+      <c r="HO4" s="99"/>
+      <c r="HP4" s="99"/>
+      <c r="HQ4" s="100"/>
+      <c r="HR4" s="98">
         <f>HR5</f>
         <v>44696</v>
       </c>
-      <c r="HS4" s="101"/>
-      <c r="HT4" s="101"/>
-      <c r="HU4" s="101"/>
-      <c r="HV4" s="101"/>
-      <c r="HW4" s="101"/>
-      <c r="HX4" s="102"/>
-      <c r="HY4" s="100">
+      <c r="HS4" s="99"/>
+      <c r="HT4" s="99"/>
+      <c r="HU4" s="99"/>
+      <c r="HV4" s="99"/>
+      <c r="HW4" s="99"/>
+      <c r="HX4" s="100"/>
+      <c r="HY4" s="98">
         <f>HY5</f>
         <v>44703</v>
       </c>
-      <c r="HZ4" s="101"/>
-      <c r="IA4" s="101"/>
-      <c r="IB4" s="101"/>
-      <c r="IC4" s="101"/>
-      <c r="ID4" s="101"/>
-      <c r="IE4" s="102"/>
-      <c r="IF4" s="100">
+      <c r="HZ4" s="99"/>
+      <c r="IA4" s="99"/>
+      <c r="IB4" s="99"/>
+      <c r="IC4" s="99"/>
+      <c r="ID4" s="99"/>
+      <c r="IE4" s="100"/>
+      <c r="IF4" s="98">
         <f>IF5</f>
         <v>44710</v>
       </c>
-      <c r="IG4" s="101"/>
-      <c r="IH4" s="101"/>
-      <c r="II4" s="101"/>
-      <c r="IJ4" s="101"/>
-      <c r="IK4" s="101"/>
-      <c r="IL4" s="102"/>
-      <c r="IM4" s="100">
+      <c r="IG4" s="99"/>
+      <c r="IH4" s="99"/>
+      <c r="II4" s="99"/>
+      <c r="IJ4" s="99"/>
+      <c r="IK4" s="99"/>
+      <c r="IL4" s="100"/>
+      <c r="IM4" s="98">
         <f>IM5</f>
         <v>44717</v>
       </c>
-      <c r="IN4" s="101"/>
-      <c r="IO4" s="101"/>
-      <c r="IP4" s="101"/>
-      <c r="IQ4" s="101"/>
-      <c r="IR4" s="101"/>
-      <c r="IS4" s="102"/>
-      <c r="IT4" s="100">
+      <c r="IN4" s="99"/>
+      <c r="IO4" s="99"/>
+      <c r="IP4" s="99"/>
+      <c r="IQ4" s="99"/>
+      <c r="IR4" s="99"/>
+      <c r="IS4" s="100"/>
+      <c r="IT4" s="98">
         <f>IT5</f>
         <v>44724</v>
       </c>
-      <c r="IU4" s="101"/>
-      <c r="IV4" s="101"/>
-      <c r="IW4" s="101"/>
-      <c r="IX4" s="101"/>
-      <c r="IY4" s="101"/>
-      <c r="IZ4" s="102"/>
-      <c r="JA4" s="100">
+      <c r="IU4" s="99"/>
+      <c r="IV4" s="99"/>
+      <c r="IW4" s="99"/>
+      <c r="IX4" s="99"/>
+      <c r="IY4" s="99"/>
+      <c r="IZ4" s="100"/>
+      <c r="JA4" s="98">
         <f>JA5</f>
         <v>44731</v>
       </c>
-      <c r="JB4" s="101"/>
-      <c r="JC4" s="101"/>
-      <c r="JD4" s="101"/>
-      <c r="JE4" s="101"/>
-      <c r="JF4" s="101"/>
-      <c r="JG4" s="102"/>
-      <c r="JH4" s="100">
+      <c r="JB4" s="99"/>
+      <c r="JC4" s="99"/>
+      <c r="JD4" s="99"/>
+      <c r="JE4" s="99"/>
+      <c r="JF4" s="99"/>
+      <c r="JG4" s="100"/>
+      <c r="JH4" s="98">
         <f>JH5</f>
         <v>44738</v>
       </c>
-      <c r="JI4" s="101"/>
-      <c r="JJ4" s="101"/>
-      <c r="JK4" s="101"/>
-      <c r="JL4" s="101"/>
-      <c r="JM4" s="101"/>
-      <c r="JN4" s="102"/>
-      <c r="JO4" s="100">
+      <c r="JI4" s="99"/>
+      <c r="JJ4" s="99"/>
+      <c r="JK4" s="99"/>
+      <c r="JL4" s="99"/>
+      <c r="JM4" s="99"/>
+      <c r="JN4" s="100"/>
+      <c r="JO4" s="98">
         <f>JO5</f>
         <v>44745</v>
       </c>
-      <c r="JP4" s="101"/>
-      <c r="JQ4" s="101"/>
-      <c r="JR4" s="101"/>
-      <c r="JS4" s="101"/>
-      <c r="JT4" s="101"/>
-      <c r="JU4" s="102"/>
-      <c r="JV4" s="100">
+      <c r="JP4" s="99"/>
+      <c r="JQ4" s="99"/>
+      <c r="JR4" s="99"/>
+      <c r="JS4" s="99"/>
+      <c r="JT4" s="99"/>
+      <c r="JU4" s="100"/>
+      <c r="JV4" s="98">
         <f>JV5</f>
         <v>44752</v>
       </c>
-      <c r="JW4" s="101"/>
-      <c r="JX4" s="101"/>
-      <c r="JY4" s="101"/>
-      <c r="JZ4" s="101"/>
-      <c r="KA4" s="101"/>
-      <c r="KB4" s="102"/>
-      <c r="KC4" s="100">
+      <c r="JW4" s="99"/>
+      <c r="JX4" s="99"/>
+      <c r="JY4" s="99"/>
+      <c r="JZ4" s="99"/>
+      <c r="KA4" s="99"/>
+      <c r="KB4" s="100"/>
+      <c r="KC4" s="98">
         <f>KC5</f>
         <v>44759</v>
       </c>
-      <c r="KD4" s="101"/>
-      <c r="KE4" s="101"/>
-      <c r="KF4" s="101"/>
-      <c r="KG4" s="101"/>
-      <c r="KH4" s="101"/>
-      <c r="KI4" s="102"/>
-      <c r="KJ4" s="100">
+      <c r="KD4" s="99"/>
+      <c r="KE4" s="99"/>
+      <c r="KF4" s="99"/>
+      <c r="KG4" s="99"/>
+      <c r="KH4" s="99"/>
+      <c r="KI4" s="100"/>
+      <c r="KJ4" s="98">
         <f>KJ5</f>
         <v>44766</v>
       </c>
-      <c r="KK4" s="101"/>
-      <c r="KL4" s="101"/>
-      <c r="KM4" s="101"/>
-      <c r="KN4" s="101"/>
-      <c r="KO4" s="101"/>
-      <c r="KP4" s="102"/>
-      <c r="KQ4" s="100">
+      <c r="KK4" s="99"/>
+      <c r="KL4" s="99"/>
+      <c r="KM4" s="99"/>
+      <c r="KN4" s="99"/>
+      <c r="KO4" s="99"/>
+      <c r="KP4" s="100"/>
+      <c r="KQ4" s="98">
         <f>KQ5</f>
         <v>44773</v>
       </c>
-      <c r="KR4" s="101"/>
-      <c r="KS4" s="101"/>
-      <c r="KT4" s="101"/>
-      <c r="KU4" s="101"/>
-      <c r="KV4" s="101"/>
-      <c r="KW4" s="102"/>
-      <c r="KX4" s="100">
+      <c r="KR4" s="99"/>
+      <c r="KS4" s="99"/>
+      <c r="KT4" s="99"/>
+      <c r="KU4" s="99"/>
+      <c r="KV4" s="99"/>
+      <c r="KW4" s="100"/>
+      <c r="KX4" s="98">
         <f>KX5</f>
         <v>44780</v>
       </c>
-      <c r="KY4" s="101"/>
-      <c r="KZ4" s="101"/>
-      <c r="LA4" s="101"/>
-      <c r="LB4" s="101"/>
-      <c r="LC4" s="101"/>
-      <c r="LD4" s="102"/>
+      <c r="KY4" s="99"/>
+      <c r="KZ4" s="99"/>
+      <c r="LA4" s="99"/>
+      <c r="LB4" s="99"/>
+      <c r="LC4" s="99"/>
+      <c r="LD4" s="100"/>
       <c r="LE4"/>
       <c r="LF4"/>
       <c r="LG4"/>
@@ -2606,16 +2606,16 @@
       <c r="ADR4"/>
       <c r="ADS4"/>
     </row>
-    <row r="5" spans="1:799" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:799" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
       <c r="I5" s="7">
         <f>Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
         <v>44479</v>
@@ -4332,7 +4332,7 @@
       <c r="ADR5"/>
       <c r="ADS5"/>
     </row>
-    <row r="6" spans="1:799" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:799" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>29</v>
       </c>
@@ -4355,932 +4355,932 @@
       <c r="H6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="I6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="104" t="s">
+      <c r="K6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="104" t="s">
+      <c r="L6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="104" t="s">
+      <c r="M6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="104" t="s">
+      <c r="N6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="104" t="s">
+      <c r="O6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="104" t="s">
+      <c r="P6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="104" t="s">
+      <c r="Q6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="104" t="s">
+      <c r="R6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="104" t="s">
+      <c r="S6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="104" t="s">
+      <c r="T6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="U6" s="104" t="s">
+      <c r="U6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="104" t="s">
+      <c r="V6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="W6" s="104" t="s">
+      <c r="W6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="X6" s="104" t="s">
+      <c r="X6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="Y6" s="104" t="s">
+      <c r="Y6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="Z6" s="104" t="s">
+      <c r="Z6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="AA6" s="104" t="s">
+      <c r="AA6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="AB6" s="104" t="s">
+      <c r="AB6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" s="104" t="s">
+      <c r="AC6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" s="104" t="s">
+      <c r="AD6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="AE6" s="104" t="s">
+      <c r="AE6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="AF6" s="104" t="s">
+      <c r="AF6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="AG6" s="104" t="s">
+      <c r="AG6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="AH6" s="104" t="s">
+      <c r="AH6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="AI6" s="104" t="s">
+      <c r="AI6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="AJ6" s="104" t="s">
+      <c r="AJ6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="AK6" s="104" t="s">
+      <c r="AK6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="AL6" s="104" t="s">
+      <c r="AL6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="AM6" s="104" t="s">
+      <c r="AM6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="AN6" s="104" t="s">
+      <c r="AN6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="AO6" s="104" t="s">
+      <c r="AO6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="AP6" s="104" t="s">
+      <c r="AP6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="AQ6" s="104" t="s">
+      <c r="AQ6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="AR6" s="104" t="s">
+      <c r="AR6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="AS6" s="104" t="s">
+      <c r="AS6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="AT6" s="104" t="s">
+      <c r="AT6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="AU6" s="104" t="s">
+      <c r="AU6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="AV6" s="104" t="s">
+      <c r="AV6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="AW6" s="104" t="s">
+      <c r="AW6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="AX6" s="104" t="s">
+      <c r="AX6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="AY6" s="104" t="s">
+      <c r="AY6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="AZ6" s="104" t="s">
+      <c r="AZ6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="BA6" s="104" t="s">
+      <c r="BA6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="BB6" s="104" t="s">
+      <c r="BB6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="BC6" s="104" t="s">
+      <c r="BC6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="BD6" s="104" t="s">
+      <c r="BD6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="BE6" s="104" t="s">
+      <c r="BE6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="BF6" s="104" t="s">
+      <c r="BF6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="BG6" s="104" t="s">
+      <c r="BG6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="BH6" s="104" t="s">
+      <c r="BH6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="BI6" s="104" t="s">
+      <c r="BI6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="BJ6" s="104" t="s">
+      <c r="BJ6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="BK6" s="104" t="s">
+      <c r="BK6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="BL6" s="104" t="s">
+      <c r="BL6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="BM6" s="104" t="s">
+      <c r="BM6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="BN6" s="104" t="s">
+      <c r="BN6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="BO6" s="104" t="s">
+      <c r="BO6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="BP6" s="104" t="s">
+      <c r="BP6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="BQ6" s="104" t="s">
+      <c r="BQ6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="BR6" s="104" t="s">
+      <c r="BR6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="BS6" s="104" t="s">
+      <c r="BS6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="BT6" s="104" t="s">
+      <c r="BT6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="BU6" s="104" t="s">
+      <c r="BU6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="BV6" s="104" t="s">
+      <c r="BV6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="BW6" s="104" t="s">
+      <c r="BW6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="BX6" s="104" t="s">
+      <c r="BX6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="BY6" s="104" t="s">
+      <c r="BY6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="BZ6" s="104" t="s">
+      <c r="BZ6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="CA6" s="104" t="s">
+      <c r="CA6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="CB6" s="104" t="s">
+      <c r="CB6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="CC6" s="104" t="s">
+      <c r="CC6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="CD6" s="104" t="s">
+      <c r="CD6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="CE6" s="104" t="s">
+      <c r="CE6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="CF6" s="104" t="s">
+      <c r="CF6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="CG6" s="104" t="s">
+      <c r="CG6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="CH6" s="104" t="s">
+      <c r="CH6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="CI6" s="104" t="s">
+      <c r="CI6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="CJ6" s="104" t="s">
+      <c r="CJ6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="CK6" s="104" t="s">
+      <c r="CK6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="CL6" s="104" t="s">
+      <c r="CL6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="CM6" s="104" t="s">
+      <c r="CM6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="CN6" s="104" t="s">
+      <c r="CN6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="CO6" s="104" t="s">
+      <c r="CO6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="CP6" s="104" t="s">
+      <c r="CP6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="CQ6" s="104" t="s">
+      <c r="CQ6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="CR6" s="104" t="s">
+      <c r="CR6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="CS6" s="104" t="s">
+      <c r="CS6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="CT6" s="104" t="s">
+      <c r="CT6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="CU6" s="104" t="s">
+      <c r="CU6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="CV6" s="104" t="s">
+      <c r="CV6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="CW6" s="104" t="s">
+      <c r="CW6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="CX6" s="104" t="s">
+      <c r="CX6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="CY6" s="104" t="s">
+      <c r="CY6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="CZ6" s="104" t="s">
+      <c r="CZ6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="DA6" s="104" t="s">
+      <c r="DA6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="DB6" s="104" t="s">
+      <c r="DB6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="DC6" s="104" t="s">
+      <c r="DC6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="DD6" s="104" t="s">
+      <c r="DD6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="DE6" s="104" t="s">
+      <c r="DE6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="DF6" s="104" t="s">
+      <c r="DF6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="DG6" s="104" t="s">
+      <c r="DG6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="DH6" s="104" t="s">
+      <c r="DH6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="DI6" s="104" t="s">
+      <c r="DI6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="DJ6" s="104" t="s">
+      <c r="DJ6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="DK6" s="104" t="s">
+      <c r="DK6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="DL6" s="104" t="s">
+      <c r="DL6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="DM6" s="104" t="s">
+      <c r="DM6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="DN6" s="104" t="s">
+      <c r="DN6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="DO6" s="104" t="s">
+      <c r="DO6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="DP6" s="104" t="s">
+      <c r="DP6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="DQ6" s="104" t="s">
+      <c r="DQ6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="DR6" s="104" t="s">
+      <c r="DR6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="DS6" s="104" t="s">
+      <c r="DS6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="DT6" s="104" t="s">
+      <c r="DT6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="DU6" s="104" t="s">
+      <c r="DU6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="DV6" s="104" t="s">
+      <c r="DV6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="DW6" s="104" t="s">
+      <c r="DW6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="DX6" s="104" t="s">
+      <c r="DX6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="DY6" s="104" t="s">
+      <c r="DY6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="DZ6" s="104" t="s">
+      <c r="DZ6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="EA6" s="104" t="s">
+      <c r="EA6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="EB6" s="104" t="s">
+      <c r="EB6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="EC6" s="104" t="s">
+      <c r="EC6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="ED6" s="104" t="s">
+      <c r="ED6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="EE6" s="104" t="s">
+      <c r="EE6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="EF6" s="104" t="s">
+      <c r="EF6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="EG6" s="104" t="s">
+      <c r="EG6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="EH6" s="104" t="s">
+      <c r="EH6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="EI6" s="104" t="s">
+      <c r="EI6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="EJ6" s="104" t="s">
+      <c r="EJ6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="EK6" s="104" t="s">
+      <c r="EK6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="EL6" s="104" t="s">
+      <c r="EL6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="EM6" s="104" t="s">
+      <c r="EM6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="EN6" s="104" t="s">
+      <c r="EN6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="EO6" s="104" t="s">
+      <c r="EO6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="EP6" s="104" t="s">
+      <c r="EP6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="EQ6" s="104" t="s">
+      <c r="EQ6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="ER6" s="104" t="s">
+      <c r="ER6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="ES6" s="104" t="s">
+      <c r="ES6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="ET6" s="104" t="s">
+      <c r="ET6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="EU6" s="104" t="s">
+      <c r="EU6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="EV6" s="104" t="s">
+      <c r="EV6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="EW6" s="104" t="s">
+      <c r="EW6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="EX6" s="104" t="s">
+      <c r="EX6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="EY6" s="104" t="s">
+      <c r="EY6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="EZ6" s="104" t="s">
+      <c r="EZ6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="FA6" s="104" t="s">
+      <c r="FA6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="FB6" s="104" t="s">
+      <c r="FB6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="FC6" s="104" t="s">
+      <c r="FC6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="FD6" s="104" t="s">
+      <c r="FD6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="FE6" s="104" t="s">
+      <c r="FE6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="FF6" s="104" t="s">
+      <c r="FF6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="FG6" s="104" t="s">
+      <c r="FG6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="FH6" s="104" t="s">
+      <c r="FH6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="FI6" s="104" t="s">
+      <c r="FI6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="FJ6" s="104" t="s">
+      <c r="FJ6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="FK6" s="104" t="s">
+      <c r="FK6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="FL6" s="104" t="s">
+      <c r="FL6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="FM6" s="104" t="s">
+      <c r="FM6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="FN6" s="104" t="s">
+      <c r="FN6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="FO6" s="104" t="s">
+      <c r="FO6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="FP6" s="104" t="s">
+      <c r="FP6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="FQ6" s="104" t="s">
+      <c r="FQ6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="FR6" s="104" t="s">
+      <c r="FR6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="FS6" s="104" t="s">
+      <c r="FS6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="FT6" s="104" t="s">
+      <c r="FT6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="FU6" s="104" t="s">
+      <c r="FU6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="FV6" s="104" t="s">
+      <c r="FV6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="FW6" s="104" t="s">
+      <c r="FW6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="FX6" s="104" t="s">
+      <c r="FX6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="FY6" s="104" t="s">
+      <c r="FY6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="FZ6" s="104" t="s">
+      <c r="FZ6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="GA6" s="104" t="s">
+      <c r="GA6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="GB6" s="104" t="s">
+      <c r="GB6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="GC6" s="104" t="s">
+      <c r="GC6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="GD6" s="104" t="s">
+      <c r="GD6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="GE6" s="104" t="s">
+      <c r="GE6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="GF6" s="104" t="s">
+      <c r="GF6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="GG6" s="104" t="s">
+      <c r="GG6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="GH6" s="104" t="s">
+      <c r="GH6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="GI6" s="104" t="s">
+      <c r="GI6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="GJ6" s="104" t="s">
+      <c r="GJ6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="GK6" s="104" t="s">
+      <c r="GK6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="GL6" s="104" t="s">
+      <c r="GL6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="GM6" s="104" t="s">
+      <c r="GM6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="GN6" s="104" t="s">
+      <c r="GN6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="GO6" s="104" t="s">
+      <c r="GO6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="GP6" s="104" t="s">
+      <c r="GP6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="GQ6" s="104" t="s">
+      <c r="GQ6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="GR6" s="104" t="s">
+      <c r="GR6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="GS6" s="104" t="s">
+      <c r="GS6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="GT6" s="104" t="s">
+      <c r="GT6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="GU6" s="104" t="s">
+      <c r="GU6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="GV6" s="104" t="s">
+      <c r="GV6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="GW6" s="104" t="s">
+      <c r="GW6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="GX6" s="104" t="s">
+      <c r="GX6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="GY6" s="104" t="s">
+      <c r="GY6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="GZ6" s="104" t="s">
+      <c r="GZ6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="HA6" s="104" t="s">
+      <c r="HA6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="HB6" s="104" t="s">
+      <c r="HB6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="HC6" s="104" t="s">
+      <c r="HC6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="HD6" s="104" t="s">
+      <c r="HD6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="HE6" s="104" t="s">
+      <c r="HE6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="HF6" s="104" t="s">
+      <c r="HF6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="HG6" s="104" t="s">
+      <c r="HG6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="HH6" s="104" t="s">
+      <c r="HH6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="HI6" s="104" t="s">
+      <c r="HI6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="HJ6" s="104" t="s">
+      <c r="HJ6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="HK6" s="104" t="s">
+      <c r="HK6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="HL6" s="104" t="s">
+      <c r="HL6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="HM6" s="104" t="s">
+      <c r="HM6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="HN6" s="104" t="s">
+      <c r="HN6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="HO6" s="104" t="s">
+      <c r="HO6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="HP6" s="104" t="s">
+      <c r="HP6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="HQ6" s="104" t="s">
+      <c r="HQ6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="HR6" s="104" t="s">
+      <c r="HR6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="HS6" s="104" t="s">
+      <c r="HS6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="HT6" s="104" t="s">
+      <c r="HT6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="HU6" s="104" t="s">
+      <c r="HU6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="HV6" s="104" t="s">
+      <c r="HV6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="HW6" s="104" t="s">
+      <c r="HW6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="HX6" s="104" t="s">
+      <c r="HX6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="HY6" s="104" t="s">
+      <c r="HY6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="HZ6" s="104" t="s">
+      <c r="HZ6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="IA6" s="104" t="s">
+      <c r="IA6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="IB6" s="104" t="s">
+      <c r="IB6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="IC6" s="104" t="s">
+      <c r="IC6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="ID6" s="104" t="s">
+      <c r="ID6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="IE6" s="104" t="s">
+      <c r="IE6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="IF6" s="104" t="s">
+      <c r="IF6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="IG6" s="104" t="s">
+      <c r="IG6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="IH6" s="104" t="s">
+      <c r="IH6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="II6" s="104" t="s">
+      <c r="II6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="IJ6" s="104" t="s">
+      <c r="IJ6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="IK6" s="104" t="s">
+      <c r="IK6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="IL6" s="104" t="s">
+      <c r="IL6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="IM6" s="104" t="s">
+      <c r="IM6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="IN6" s="104" t="s">
+      <c r="IN6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="IO6" s="104" t="s">
+      <c r="IO6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="IP6" s="104" t="s">
+      <c r="IP6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="IQ6" s="104" t="s">
+      <c r="IQ6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="IR6" s="104" t="s">
+      <c r="IR6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="IS6" s="104" t="s">
+      <c r="IS6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="IT6" s="104" t="s">
+      <c r="IT6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="IU6" s="104" t="s">
+      <c r="IU6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="IV6" s="104" t="s">
+      <c r="IV6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="IW6" s="104" t="s">
+      <c r="IW6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="IX6" s="104" t="s">
+      <c r="IX6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="IY6" s="104" t="s">
+      <c r="IY6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="IZ6" s="104" t="s">
+      <c r="IZ6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="JA6" s="104" t="s">
+      <c r="JA6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="JB6" s="104" t="s">
+      <c r="JB6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="JC6" s="104" t="s">
+      <c r="JC6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="JD6" s="104" t="s">
+      <c r="JD6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="JE6" s="104" t="s">
+      <c r="JE6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="JF6" s="104" t="s">
+      <c r="JF6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="JG6" s="104" t="s">
+      <c r="JG6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="JH6" s="104" t="s">
+      <c r="JH6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="JI6" s="104" t="s">
+      <c r="JI6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="JJ6" s="104" t="s">
+      <c r="JJ6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="JK6" s="104" t="s">
+      <c r="JK6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="JL6" s="104" t="s">
+      <c r="JL6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="JM6" s="104" t="s">
+      <c r="JM6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="JN6" s="104" t="s">
+      <c r="JN6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="JO6" s="104" t="s">
+      <c r="JO6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="JP6" s="104" t="s">
+      <c r="JP6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="JQ6" s="104" t="s">
+      <c r="JQ6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="JR6" s="104" t="s">
+      <c r="JR6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="JS6" s="104" t="s">
+      <c r="JS6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="JT6" s="104" t="s">
+      <c r="JT6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="JU6" s="104" t="s">
+      <c r="JU6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="JV6" s="104" t="s">
+      <c r="JV6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="JW6" s="104" t="s">
+      <c r="JW6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="JX6" s="104" t="s">
+      <c r="JX6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="JY6" s="104" t="s">
+      <c r="JY6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="JZ6" s="104" t="s">
+      <c r="JZ6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="KA6" s="104" t="s">
+      <c r="KA6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="KB6" s="104" t="s">
+      <c r="KB6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="KC6" s="104" t="s">
+      <c r="KC6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="KD6" s="104" t="s">
+      <c r="KD6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="KE6" s="104" t="s">
+      <c r="KE6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="KF6" s="104" t="s">
+      <c r="KF6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="KG6" s="104" t="s">
+      <c r="KG6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="KH6" s="104" t="s">
+      <c r="KH6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="KI6" s="104" t="s">
+      <c r="KI6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="KJ6" s="104" t="s">
+      <c r="KJ6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="KK6" s="104" t="s">
+      <c r="KK6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="KL6" s="104" t="s">
+      <c r="KL6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="KM6" s="104" t="s">
+      <c r="KM6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="KN6" s="104" t="s">
+      <c r="KN6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="KO6" s="104" t="s">
+      <c r="KO6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="KP6" s="104" t="s">
+      <c r="KP6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="KQ6" s="104" t="s">
+      <c r="KQ6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="KR6" s="104" t="s">
+      <c r="KR6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="KS6" s="104" t="s">
+      <c r="KS6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="KT6" s="104" t="s">
+      <c r="KT6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="KU6" s="104" t="s">
+      <c r="KU6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="KV6" s="104" t="s">
+      <c r="KV6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="KW6" s="104" t="s">
+      <c r="KW6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="KX6" s="104" t="s">
+      <c r="KX6" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="KY6" s="104" t="s">
+      <c r="KY6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="KZ6" s="104" t="s">
+      <c r="KZ6" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="LA6" s="104" t="s">
+      <c r="LA6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="LB6" s="104" t="s">
+      <c r="LB6" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="LC6" s="104" t="s">
+      <c r="LC6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="LD6" s="104" t="s">
+      <c r="LD6" s="97" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:799" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:799" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>24</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="ADR7"/>
       <c r="ADS7"/>
     </row>
-    <row r="8" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>30</v>
       </c>
@@ -6894,7 +6894,7 @@
       <c r="ADR8"/>
       <c r="ADS8"/>
     </row>
-    <row r="9" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>31</v>
       </c>
@@ -7710,7 +7710,7 @@
       <c r="ADR9" s="96"/>
       <c r="ADS9" s="96"/>
     </row>
-    <row r="10" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>32</v>
       </c>
@@ -8526,7 +8526,7 @@
       <c r="ADR10"/>
       <c r="ADS10"/>
     </row>
-    <row r="11" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="51" t="s">
         <v>36</v>
@@ -9340,7 +9340,7 @@
       <c r="ADR11"/>
       <c r="ADS11"/>
     </row>
-    <row r="12" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
       <c r="B12" s="51" t="s">
         <v>45</v>
@@ -9350,12 +9350,12 @@
         <v>0</v>
       </c>
       <c r="E12" s="79">
-        <f>F11</f>
-        <v>44532</v>
+        <f>F10+14</f>
+        <v>44515</v>
       </c>
       <c r="F12" s="79">
         <f>E12+14</f>
-        <v>44546</v>
+        <v>44529</v>
       </c>
       <c r="G12" s="47"/>
       <c r="H12" s="11">
@@ -10154,7 +10154,7 @@
       <c r="ADR12" s="96"/>
       <c r="ADS12" s="96"/>
     </row>
-    <row r="13" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="51" t="s">
         <v>48</v>
@@ -10164,17 +10164,17 @@
         <v>0</v>
       </c>
       <c r="E13" s="79">
-        <f>E12+7</f>
-        <v>44539</v>
+        <f>E11+14</f>
+        <v>44506</v>
       </c>
       <c r="F13" s="79">
-        <f>E13+14</f>
-        <v>44553</v>
+        <f>E13+28</f>
+        <v>44534</v>
       </c>
       <c r="G13" s="47"/>
       <c r="H13" s="11">
         <f t="shared" si="184"/>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -10968,7 +10968,7 @@
       <c r="ADR13"/>
       <c r="ADS13"/>
     </row>
-    <row r="14" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>33</v>
       </c>
@@ -11776,7 +11776,7 @@
       <c r="ADR14"/>
       <c r="ADS14"/>
     </row>
-    <row r="15" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
       <c r="B15" s="55" t="s">
         <v>49</v>
@@ -12590,7 +12590,7 @@
       <c r="ADR15" s="96"/>
       <c r="ADS15" s="96"/>
     </row>
-    <row r="16" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
       <c r="B16" s="55" t="s">
         <v>47</v>
@@ -13404,7 +13404,7 @@
       <c r="ADR16"/>
       <c r="ADS16"/>
     </row>
-    <row r="17" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35"/>
       <c r="B17" s="55" t="s">
         <v>50</v>
@@ -14218,7 +14218,7 @@
       <c r="ADR17"/>
       <c r="ADS17"/>
     </row>
-    <row r="18" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="55" t="s">
         <v>51</v>
@@ -15032,7 +15032,7 @@
       <c r="ADR18" s="96"/>
       <c r="ADS18" s="96"/>
     </row>
-    <row r="19" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="55" t="s">
         <v>52</v>
@@ -15846,7 +15846,7 @@
       <c r="ADR19"/>
       <c r="ADS19"/>
     </row>
-    <row r="20" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>21</v>
       </c>
@@ -16654,7 +16654,7 @@
       <c r="ADR20"/>
       <c r="ADS20"/>
     </row>
-    <row r="21" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="61" t="s">
         <v>54</v>
@@ -17468,7 +17468,7 @@
       <c r="ADR21" s="96"/>
       <c r="ADS21" s="96"/>
     </row>
-    <row r="22" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="61" t="s">
         <v>55</v>
@@ -18282,7 +18282,7 @@
       <c r="ADR22"/>
       <c r="ADS22"/>
     </row>
-    <row r="23" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="61" t="s">
         <v>56</v>
@@ -19096,7 +19096,7 @@
       <c r="ADR23"/>
       <c r="ADS23"/>
     </row>
-    <row r="24" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="61" t="s">
         <v>57</v>
@@ -19910,7 +19910,7 @@
       <c r="ADR24" s="96"/>
       <c r="ADS24" s="96"/>
     </row>
-    <row r="25" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="61" t="s">
         <v>58</v>
@@ -20724,7 +20724,7 @@
       <c r="ADR25"/>
       <c r="ADS25"/>
     </row>
-    <row r="26" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
         <v>21</v>
       </c>
@@ -21532,7 +21532,7 @@
       <c r="ADR26"/>
       <c r="ADS26"/>
     </row>
-    <row r="27" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="67" t="s">
         <v>60</v>
@@ -22346,7 +22346,7 @@
       <c r="ADR27" s="96"/>
       <c r="ADS27" s="96"/>
     </row>
-    <row r="28" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
       <c r="B28" s="67" t="s">
         <v>61</v>
@@ -23160,7 +23160,7 @@
       <c r="ADR28"/>
       <c r="ADS28"/>
     </row>
-    <row r="29" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35"/>
       <c r="B29" s="92" t="s">
         <v>62</v>
@@ -23966,7 +23966,7 @@
       <c r="ADR29"/>
       <c r="ADS29"/>
     </row>
-    <row r="30" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="93" t="s">
         <v>63</v>
@@ -24780,7 +24780,7 @@
       <c r="ADR30" s="96"/>
       <c r="ADS30" s="96"/>
     </row>
-    <row r="31" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35"/>
       <c r="B31" s="94" t="s">
         <v>64</v>
@@ -25592,7 +25592,7 @@
       <c r="ADR31"/>
       <c r="ADS31"/>
     </row>
-    <row r="32" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
         <v>23</v>
       </c>
@@ -26398,7 +26398,7 @@
       <c r="ADR32"/>
       <c r="ADS32"/>
     </row>
-    <row r="33" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:799" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>22</v>
       </c>
@@ -27206,7 +27206,7 @@
       <c r="ADR33" s="96"/>
       <c r="ADS33" s="96"/>
     </row>
-    <row r="34" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G34" s="4"/>
       <c r="LE34"/>
       <c r="LF34"/>
@@ -27692,7 +27692,7 @@
       <c r="ADR34"/>
       <c r="ADS34"/>
     </row>
-    <row r="35" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="9"/>
       <c r="F35" s="27"/>
       <c r="LE35"/>
@@ -28179,10 +28179,10 @@
       <c r="ADR35"/>
       <c r="ADS35"/>
     </row>
-    <row r="36" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE37"/>
       <c r="LF37"/>
       <c r="LG37"/>
@@ -28667,7 +28667,7 @@
       <c r="ADR37"/>
       <c r="ADS37"/>
     </row>
-    <row r="38" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE38"/>
       <c r="LF38"/>
       <c r="LG38"/>
@@ -29152,7 +29152,7 @@
       <c r="ADR38"/>
       <c r="ADS38"/>
     </row>
-    <row r="40" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE40"/>
       <c r="LF40"/>
       <c r="LG40"/>
@@ -29637,7 +29637,7 @@
       <c r="ADR40"/>
       <c r="ADS40"/>
     </row>
-    <row r="41" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE41"/>
       <c r="LF41"/>
       <c r="LG41"/>
@@ -30122,7 +30122,7 @@
       <c r="ADR41"/>
       <c r="ADS41"/>
     </row>
-    <row r="43" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE43"/>
       <c r="LF43"/>
       <c r="LG43"/>
@@ -30607,7 +30607,7 @@
       <c r="ADR43"/>
       <c r="ADS43"/>
     </row>
-    <row r="44" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE44"/>
       <c r="LF44"/>
       <c r="LG44"/>
@@ -31092,7 +31092,7 @@
       <c r="ADR44"/>
       <c r="ADS44"/>
     </row>
-    <row r="46" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE46"/>
       <c r="LF46"/>
       <c r="LG46"/>
@@ -31577,7 +31577,7 @@
       <c r="ADR46"/>
       <c r="ADS46"/>
     </row>
-    <row r="47" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE47"/>
       <c r="LF47"/>
       <c r="LG47"/>
@@ -32062,7 +32062,7 @@
       <c r="ADR47"/>
       <c r="ADS47"/>
     </row>
-    <row r="49" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE49"/>
       <c r="LF49"/>
       <c r="LG49"/>
@@ -32547,7 +32547,7 @@
       <c r="ADR49"/>
       <c r="ADS49"/>
     </row>
-    <row r="50" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE50"/>
       <c r="LF50"/>
       <c r="LG50"/>
@@ -33032,7 +33032,7 @@
       <c r="ADR50"/>
       <c r="ADS50"/>
     </row>
-    <row r="52" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE52"/>
       <c r="LF52"/>
       <c r="LG52"/>
@@ -33517,7 +33517,7 @@
       <c r="ADR52"/>
       <c r="ADS52"/>
     </row>
-    <row r="53" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE53"/>
       <c r="LF53"/>
       <c r="LG53"/>
@@ -34002,7 +34002,7 @@
       <c r="ADR53"/>
       <c r="ADS53"/>
     </row>
-    <row r="55" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE55"/>
       <c r="LF55"/>
       <c r="LG55"/>
@@ -34487,7 +34487,7 @@
       <c r="ADR55"/>
       <c r="ADS55"/>
     </row>
-    <row r="56" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE56"/>
       <c r="LF56"/>
       <c r="LG56"/>
@@ -34972,7 +34972,7 @@
       <c r="ADR56"/>
       <c r="ADS56"/>
     </row>
-    <row r="58" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE58"/>
       <c r="LF58"/>
       <c r="LG58"/>
@@ -35457,7 +35457,7 @@
       <c r="ADR58"/>
       <c r="ADS58"/>
     </row>
-    <row r="59" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE59"/>
       <c r="LF59"/>
       <c r="LG59"/>
@@ -35942,7 +35942,7 @@
       <c r="ADR59"/>
       <c r="ADS59"/>
     </row>
-    <row r="61" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE61"/>
       <c r="LF61"/>
       <c r="LG61"/>
@@ -36427,7 +36427,7 @@
       <c r="ADR61"/>
       <c r="ADS61"/>
     </row>
-    <row r="62" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="317:799" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="LE62"/>
       <c r="LF62"/>
       <c r="LG62"/>
@@ -36914,6 +36914,43 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="GW4:HC4"/>
+    <mergeCell ref="HD4:HJ4"/>
+    <mergeCell ref="HK4:HQ4"/>
+    <mergeCell ref="HR4:HX4"/>
+    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="GI4:GO4"/>
+    <mergeCell ref="GP4:GV4"/>
     <mergeCell ref="KX4:LD4"/>
     <mergeCell ref="IF4:IL4"/>
     <mergeCell ref="IM4:IS4"/>
@@ -36925,43 +36962,6 @@
     <mergeCell ref="KC4:KI4"/>
     <mergeCell ref="KJ4:KP4"/>
     <mergeCell ref="KQ4:KW4"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="FU4:GA4"/>
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="GI4:GO4"/>
-    <mergeCell ref="GP4:GV4"/>
-    <mergeCell ref="GW4:HC4"/>
-    <mergeCell ref="HD4:HJ4"/>
-    <mergeCell ref="HK4:HQ4"/>
-    <mergeCell ref="HR4:HX4"/>
-    <mergeCell ref="HY4:IE4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D28 D30:D33">
     <cfRule type="dataBar" priority="14">
@@ -37034,31 +37034,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.09765625" style="16" customWidth="1"/>
-    <col min="2" max="16384" width="9.09765625" style="1"/>
+    <col min="1" max="1" width="87.08203125" style="16" customWidth="1"/>
+    <col min="2" max="16384" width="9.08203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="17"/>
     </row>
-    <row r="3" spans="1:2" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="22" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="23"/>
     </row>
-    <row r="4" spans="1:2" s="19" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="19" customFormat="1" ht="25" x14ac:dyDescent="0.5">
       <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
@@ -37068,42 +37068,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="16" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="16" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="19" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="19" customFormat="1" ht="25" x14ac:dyDescent="0.5">
       <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="16" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="16" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="19" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="19" customFormat="1" ht="25" x14ac:dyDescent="0.5">
       <c r="A11" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="16" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="16" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="19" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="19" customFormat="1" ht="25" x14ac:dyDescent="0.5">
       <c r="A14" s="20" t="s">
         <v>9</v>
       </c>
@@ -37113,7 +37113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="70" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>11</v>
       </c>
